--- a/Code+Data/dataset 5-EPSC-PPR(50ms).xlsx
+++ b/Code+Data/dataset 5-EPSC-PPR(50ms).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usr\rick\doc\Students\Kaeser, Pascal\Munc13 Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usr\rick\doc\Students\Kaeser, Pascal\Munc13 Paper\Munc13-Paper\Code+Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Sweep</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>PSC</t>
@@ -73,18 +70,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,13 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -388,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -401,7 +389,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1280,14 +1268,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
-        <v>5</v>
+      <c r="A45" s="2">
+        <v>1.1624360932620914</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1301,10 +1289,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
-        <v>1.1624360932620914</v>
+        <v>1.396274851299544</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1321,10 +1309,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
-        <v>1.396274851299544</v>
+        <v>1.352515825177695</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1341,10 +1329,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
-        <v>1.352515825177695</v>
+        <v>1.3708058873766318</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1361,13 +1349,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
-        <v>1.3708058873766318</v>
+        <v>1.5309526948325836</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1381,10 +1369,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
-        <v>1.5309526948325836</v>
+        <v>1.1051304676667142</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1401,10 +1389,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
-        <v>1.1051304676667142</v>
+        <v>1.0574332972766403</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1421,10 +1409,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
-        <v>1.0574332972766403</v>
+        <v>0.91245465195605358</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1441,13 +1429,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
-        <v>0.91245465195605358</v>
+        <v>0.99984892312092755</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -1461,10 +1449,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
-        <v>0.99984892312092755</v>
+        <v>0.9448822038542225</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1481,10 +1469,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
-        <v>0.9448822038542225</v>
+        <v>0.99170686208006165</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1501,10 +1489,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
-        <v>0.99170686208006165</v>
+        <v>1.0615962148967641</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1521,13 +1509,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
-        <v>1.0615962148967641</v>
+        <v>1.4400113326335666</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -1541,10 +1529,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
-        <v>1.4400113326335666</v>
+        <v>1.5334152207375844</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1561,10 +1549,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
-        <v>1.5334152207375844</v>
+        <v>1.3292585545899129</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1581,10 +1569,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
-        <v>1.3292585545899129</v>
+        <v>1.5749481557781888</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1600,20 +1588,20 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="2">
-        <v>1.5749481557781888</v>
+      <c r="A61" s="1">
+        <v>1.3364666585821665</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -1621,10 +1609,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
-        <v>1.3364666585821665</v>
+        <v>2.1275086873271398</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1641,10 +1629,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
-        <v>2.1275086873271398</v>
+        <v>1.4553398945473637</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1661,10 +1649,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
-        <v>1.4553398945473637</v>
+        <v>1.9916949180808279</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1681,13 +1669,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
-        <v>1.9916949180808279</v>
+        <v>2.0937805635407094</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -1701,10 +1689,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
-        <v>2.0937805635407094</v>
+        <v>1.8800663739648982</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1721,10 +1709,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
-        <v>1.8800663739648982</v>
+        <v>1.8881126862794437</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1741,10 +1729,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
-        <v>1.8881126862794437</v>
+        <v>1.7001433237951904</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1761,13 +1749,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
-        <v>1.7001433237951904</v>
+        <v>1.7474990681179396</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -1781,10 +1769,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
-        <v>1.7474990681179396</v>
+        <v>1.1488095678430807</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1801,10 +1789,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
-        <v>1.1488095678430807</v>
+        <v>2.1521215812769969</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1821,10 +1809,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
-        <v>2.1521215812769969</v>
+        <v>1.5013021481352038</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1841,13 +1829,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
-        <v>1.5013021481352038</v>
+        <v>1.7402804532419505</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -1861,10 +1849,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
-        <v>1.7402804532419505</v>
+        <v>1.8212523733618144</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1881,10 +1869,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
-        <v>1.8212523733618144</v>
+        <v>2.0683834376877468</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1901,10 +1889,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
-        <v>2.0683834376877468</v>
+        <v>2.4284048014026234</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1921,13 +1909,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
-        <v>2.4284048014026234</v>
+        <v>1.7048186129823186</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -1941,10 +1929,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
-        <v>1.7048186129823186</v>
+        <v>1.6688415094799882</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1961,10 +1949,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
-        <v>1.6688415094799882</v>
+        <v>1.8791205079708164</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1981,10 +1969,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
-        <v>1.8791205079708164</v>
+        <v>1.8185244323528909</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -2001,19 +1989,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
-        <v>1.8185244323528909</v>
+        <v>0.79425171628026103</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2021,10 +2009,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
-        <v>0.79425171628026103</v>
+        <v>0.7850691025050609</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2041,10 +2029,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
-        <v>0.7850691025050609</v>
+        <v>0.89621441345354236</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2061,10 +2049,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
-        <v>0.89621441345354236</v>
+        <v>0.83920931658022024</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2081,13 +2069,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
-        <v>0.83920931658022024</v>
+        <v>1.0721421804128901</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -2101,10 +2089,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
-        <v>1.0721421804128901</v>
+        <v>1.2790653271028025</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -2121,10 +2109,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
-        <v>1.2790653271028025</v>
+        <v>1.3615666926578704</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -2141,10 +2129,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
-        <v>1.3615666926578704</v>
+        <v>1.2626427723021467</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -2161,13 +2149,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
-        <v>1.2626427723021467</v>
+        <v>1.4431116822549803</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -2181,10 +2169,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
-        <v>1.4431116822549803</v>
+        <v>1.6376907555032292</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -2201,10 +2189,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
-        <v>1.6376907555032292</v>
+        <v>1.5071954587770213</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -2221,10 +2209,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
-        <v>1.5071954587770213</v>
+        <v>1.4288507527787386</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -2241,13 +2229,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
-        <v>1.4288507527787386</v>
+        <v>1.0288093655235473</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -2261,10 +2249,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
-        <v>1.0288093655235473</v>
+        <v>1.2004778862369532</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2281,10 +2269,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
-        <v>1.2004778862369532</v>
+        <v>1.0414376468137794</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2301,10 +2289,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
-        <v>1.0414376468137794</v>
+        <v>1.1403331824285721</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2321,13 +2309,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
-        <v>1.1403331824285721</v>
+        <v>1.1861577735530586</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -2341,10 +2329,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
-        <v>1.1861577735530586</v>
+        <v>1.1698890044054406</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2361,10 +2349,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
-        <v>1.1698890044054406</v>
+        <v>1.1793447730880706</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -2381,10 +2369,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
-        <v>1.1793447730880706</v>
+        <v>1.2907068172730622</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2401,19 +2389,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
-        <v>1.2907068172730622</v>
+        <v>1.3862014588467564</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>3</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -2421,10 +2409,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
-        <v>1.3862014588467564</v>
+        <v>1.583436552508054</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2441,10 +2429,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
-        <v>1.583436552508054</v>
+        <v>1.7102761467198986</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2461,10 +2449,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
-        <v>1.7102761467198986</v>
+        <v>1.4297054215406737</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2481,13 +2469,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
-        <v>1.4297054215406737</v>
+        <v>1.54757675848303</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2501,10 +2489,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
-        <v>1.54757675848303</v>
+        <v>2.0139206754131376</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -2521,10 +2509,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
-        <v>2.0139206754131376</v>
+        <v>2.0398034023573084</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2541,10 +2529,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
-        <v>2.0398034023573084</v>
+        <v>2.8061413572829719</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2561,13 +2549,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
-        <v>2.8061413572829719</v>
+        <v>1.48955816577591</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -2581,10 +2569,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
-        <v>1.48955816577591</v>
+        <v>1.4766495559899384</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -2601,10 +2589,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
-        <v>1.4766495559899384</v>
+        <v>1.1437454451611044</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2621,10 +2609,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
-        <v>1.1437454451611044</v>
+        <v>1.2017218901063216</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2641,13 +2629,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
-        <v>1.2017218901063216</v>
+        <v>2.1711366538952745</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -2661,10 +2649,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
-        <v>2.1711366538952745</v>
+        <v>3.7921880925293894</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -2681,10 +2669,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
-        <v>3.7921880925293894</v>
+        <v>3.6148062463851938</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -2701,10 +2689,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
-        <v>3.6148062463851938</v>
+        <v>2.4421217153462931</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -2721,13 +2709,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
-        <v>2.4421217153462931</v>
+        <v>1.3840049680835482</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -2741,10 +2729,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
-        <v>1.3840049680835482</v>
+        <v>0.95382653247932936</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>5</v>
@@ -2761,10 +2749,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
-        <v>0.95382653247932936</v>
+        <v>1.2744870252609208</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119">
         <v>5</v>
@@ -2781,10 +2769,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
-        <v>1.2744870252609208</v>
+        <v>2.2049461313602392</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C120">
         <v>5</v>
@@ -2801,13 +2789,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
-        <v>2.2049461313602392</v>
+        <v>1.2744300798617234</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -2821,10 +2809,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
-        <v>1.2744300798617234</v>
+        <v>1.1792898045305951</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <v>6</v>
@@ -2841,10 +2829,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
-        <v>1.1792898045305951</v>
+        <v>0.98938848438381521</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123">
         <v>6</v>
@@ -2861,10 +2849,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
-        <v>0.98938848438381521</v>
+        <v>1.5908722624028955</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C124">
         <v>6</v>
@@ -2881,30 +2869,30 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
-        <v>1.5908722624028955</v>
+        <v>0.96971867596771399</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
-        <v>0.96971867596771399</v>
+        <v>0.88394466820025541</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2921,10 +2909,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
-        <v>0.88394466820025541</v>
+        <v>0.89117701011844541</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2941,10 +2929,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
-        <v>0.89117701011844541</v>
+        <v>1.0221002947412838</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -2961,13 +2949,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
-        <v>1.0221002947412838</v>
+        <v>1.6089977012053218</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2981,10 +2969,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
-        <v>1.6089977012053218</v>
+        <v>1.9421592191827135</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -3001,10 +2989,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
-        <v>1.9421592191827135</v>
+        <v>1.2669610529718822</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -3021,10 +3009,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
-        <v>1.2669610529718822</v>
+        <v>2.0844999361455745</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C132">
         <v>2</v>
@@ -3041,13 +3029,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
-        <v>2.0844999361455745</v>
+        <v>1.9034075925189551</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -3061,10 +3049,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
-        <v>1.9034075925189551</v>
+        <v>1.529824761041082</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -3081,10 +3069,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
-        <v>1.529824761041082</v>
+        <v>1.3498984208954496</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -3101,10 +3089,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
-        <v>1.3498984208954496</v>
+        <v>1.4667830673589937</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136">
         <v>3</v>
@@ -3121,13 +3109,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
-        <v>1.4667830673589937</v>
+        <v>1.5232233856135202</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -3141,10 +3129,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
-        <v>1.5232233856135202</v>
+        <v>1.4751676785002794</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138">
         <v>4</v>
@@ -3161,10 +3149,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
-        <v>1.4751676785002794</v>
+        <v>1.26825034669599</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139">
         <v>4</v>
@@ -3181,10 +3169,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
-        <v>1.26825034669599</v>
+        <v>1.3723279012052503</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -3201,13 +3189,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
-        <v>1.3723279012052503</v>
+        <v>1.429570814227445</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -3221,10 +3209,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
-        <v>1.429570814227445</v>
+        <v>1.5220033253466616</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -3241,10 +3229,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
-        <v>1.5220033253466616</v>
+        <v>1.1831496522496989</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -3261,10 +3249,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
-        <v>1.1831496522496989</v>
+        <v>1.3041955709555837</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -3281,19 +3269,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
-        <v>1.3041955709555837</v>
+        <v>1.3285059888229747</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D145">
         <v>1</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -3301,10 +3289,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
-        <v>1.3285059888229747</v>
+        <v>1.2432524734421821</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3321,10 +3309,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
-        <v>1.2432524734421821</v>
+        <v>1.4439002768594877</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -3341,10 +3329,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
-        <v>1.4439002768594877</v>
+        <v>1.0975756276261643</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3361,13 +3349,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
-        <v>1.0975756276261643</v>
+        <v>1.4254481140796424</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -3381,10 +3369,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
-        <v>1.4254481140796424</v>
+        <v>1.4749571761987061</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150">
         <v>2</v>
@@ -3401,10 +3389,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
-        <v>1.4749571761987061</v>
+        <v>1.1681108108458949</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -3421,10 +3409,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
-        <v>1.1681108108458949</v>
+        <v>1.4560668991712615</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -3441,13 +3429,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
-        <v>1.4560668991712615</v>
+        <v>1.3752783581492667</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -3461,10 +3449,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
-        <v>1.3752783581492667</v>
+        <v>1.0210628343962234</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -3481,10 +3469,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
-        <v>1.0210628343962234</v>
+        <v>1.7386421088998834</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -3501,10 +3489,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
-        <v>1.7386421088998834</v>
+        <v>1.1841129221485929</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -3521,13 +3509,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
-        <v>1.1841129221485929</v>
+        <v>1.8204013874059153</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -3541,10 +3529,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
-        <v>1.8204013874059153</v>
+        <v>1.5155375947334393</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158">
         <v>4</v>
@@ -3561,10 +3549,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
-        <v>1.5155375947334393</v>
+        <v>1.5110437375999726</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159">
         <v>4</v>
@@ -3581,10 +3569,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
-        <v>1.5110437375999726</v>
+        <v>1.4106761893124957</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -3601,13 +3589,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
-        <v>1.4106761893124957</v>
+        <v>1.4375227936805086</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -3621,10 +3609,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
-        <v>1.4375227936805086</v>
+        <v>1.9314935191948082</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162">
         <v>5</v>
@@ -3641,10 +3629,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
-        <v>1.9314935191948082</v>
+        <v>0.92365430274263893</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C163">
         <v>5</v>
@@ -3661,10 +3649,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
-        <v>0.92365430274263893</v>
+        <v>1.1485536509269765</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C164">
         <v>5</v>
@@ -3681,13 +3669,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
-        <v>1.1485536509269765</v>
+        <v>1.2963822335555963</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C165">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -3701,10 +3689,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
-        <v>1.2963822335555963</v>
+        <v>2.8282407545388604</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166">
         <v>6</v>
@@ -3721,10 +3709,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
-        <v>2.8282407545388604</v>
+        <v>1.308685097739239</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C167">
         <v>6</v>
@@ -3741,10 +3729,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
-        <v>1.308685097739239</v>
+        <v>1.1634381468858366</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -3761,19 +3749,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
-        <v>1.1634381468858366</v>
+        <v>1.2262085435839374</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -3781,10 +3769,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
-        <v>1.2262085435839374</v>
+        <v>1.3153617271327602</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -3801,10 +3789,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
-        <v>1.3153617271327602</v>
+        <v>1.6230825088985106</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -3821,10 +3809,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
-        <v>1.6230825088985106</v>
+        <v>1.5933159285182898</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -3841,13 +3829,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
-        <v>1.5933159285182898</v>
+        <v>1.4353306379298725</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -3861,10 +3849,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
-        <v>1.4353306379298725</v>
+        <v>0.98968102356466758</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -3881,10 +3869,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
-        <v>0.98968102356466758</v>
+        <v>1.0700842111971369</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175">
         <v>2</v>
@@ -3901,10 +3889,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
-        <v>1.0700842111971369</v>
+        <v>1.0349383528908203</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -3921,13 +3909,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
-        <v>1.0349383528908203</v>
+        <v>0.96674963630412891</v>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -3941,10 +3929,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
-        <v>0.96674963630412891</v>
+        <v>1.0424372827778947</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -3961,10 +3949,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
-        <v>1.0424372827778947</v>
+        <v>0.92119185928581826</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C179">
         <v>3</v>
@@ -3981,10 +3969,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
-        <v>0.92119185928581826</v>
+        <v>0.99775796355476865</v>
       </c>
       <c r="B180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C180">
         <v>3</v>
@@ -4001,13 +3989,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
-        <v>0.99775796355476865</v>
+        <v>1.5476893726207273</v>
       </c>
       <c r="B181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -4021,10 +4009,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
-        <v>1.5476893726207273</v>
+        <v>1.9207749019247824</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182">
         <v>4</v>
@@ -4041,10 +4029,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
-        <v>1.9207749019247824</v>
+        <v>1.7797668363818331</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C183">
         <v>4</v>
@@ -4061,10 +4049,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
-        <v>1.7797668363818331</v>
+        <v>1.7418460456752283</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C184">
         <v>4</v>
@@ -4081,13 +4069,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
-        <v>1.7418460456752283</v>
+        <v>0.84917289626746517</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D185">
         <v>2</v>
@@ -4101,10 +4089,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
-        <v>0.84917289626746517</v>
+        <v>0.78196041797008753</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -4121,10 +4109,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
-        <v>0.78196041797008753</v>
+        <v>0.73143309179938309</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C187">
         <v>5</v>
@@ -4141,10 +4129,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
-        <v>0.73143309179938309</v>
+        <v>0.63464049352991969</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C188">
         <v>5</v>
@@ -4161,13 +4149,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
-        <v>0.63464049352991969</v>
+        <v>1.1707921288758949</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C189">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4181,10 +4169,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
-        <v>1.1707921288758949</v>
+        <v>1.1001154091335912</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190">
         <v>6</v>
@@ -4201,10 +4189,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
-        <v>1.1001154091335912</v>
+        <v>1.1330546492162341</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C191">
         <v>6</v>
@@ -4221,10 +4209,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
-        <v>1.1330546492162341</v>
+        <v>1.0545944290589215</v>
       </c>
       <c r="B192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C192">
         <v>6</v>
@@ -4241,13 +4229,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
-        <v>1.0545944290589215</v>
+        <v>1.1179938954345598</v>
       </c>
       <c r="B193">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -4261,10 +4249,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
-        <v>1.1179938954345598</v>
+        <v>1.2438190180411834</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194">
         <v>7</v>
@@ -4281,10 +4269,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
-        <v>1.2438190180411834</v>
+        <v>1.2576233670896169</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195">
         <v>7</v>
@@ -4301,10 +4289,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
-        <v>1.2576233670896169</v>
+        <v>1.2331594461070565</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C196">
         <v>7</v>
@@ -4321,13 +4309,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
-        <v>1.2331594461070565</v>
+        <v>1.4548436606225925</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -4341,10 +4329,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
-        <v>1.4548436606225925</v>
+        <v>1.4225317420095631</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198">
         <v>8</v>
@@ -4361,10 +4349,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
-        <v>1.4225317420095631</v>
+        <v>1.6868523657758008</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C199">
         <v>8</v>
@@ -4381,10 +4369,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
-        <v>1.6868523657758008</v>
+        <v>1.3593598495958696</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C200">
         <v>8</v>
@@ -4401,13 +4389,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
-        <v>1.3593598495958696</v>
+        <v>0.80002969310985839</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C201">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -4421,10 +4409,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
-        <v>0.80002969310985839</v>
+        <v>0.73790548019312341</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202">
         <v>9</v>
@@ -4441,10 +4429,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
-        <v>0.73790548019312341</v>
+        <v>0.80342472748554239</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C203">
         <v>9</v>
@@ -4461,10 +4449,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
-        <v>0.80342472748554239</v>
+        <v>0.79178432531522025</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C204">
         <v>9</v>
@@ -4481,19 +4469,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
-        <v>0.79178432531522025</v>
+        <v>1.0972921717448416</v>
       </c>
       <c r="B205">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C205">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
       <c r="E205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F205">
         <v>2</v>
@@ -4501,10 +4489,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
-        <v>1.0972921717448416</v>
+        <v>1.7034586654914317</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -4521,10 +4509,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
-        <v>1.7034586654914317</v>
+        <v>1.4346300772299478</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -4541,10 +4529,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
-        <v>1.4346300772299478</v>
+        <v>1.6932212341802619</v>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -4561,13 +4549,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
-        <v>1.6932212341802619</v>
+        <v>2.1419460608660827</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
         <v>2</v>
@@ -4581,10 +4569,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
-        <v>2.1419460608660827</v>
+        <v>2.003817389653245</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -4601,10 +4589,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
-        <v>2.003817389653245</v>
+        <v>2.5764430483840171</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C211">
         <v>2</v>
@@ -4621,10 +4609,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
-        <v>2.5764430483840171</v>
+        <v>1.732925592767574</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -4641,13 +4629,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
-        <v>1.732925592767574</v>
+        <v>2.0190849563397792</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D213">
         <v>2</v>
@@ -4661,10 +4649,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
-        <v>2.0190849563397792</v>
+        <v>1.9412080318159608</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -4681,10 +4669,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
-        <v>1.9412080318159608</v>
+        <v>2.2674010886764422</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -4701,10 +4689,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
-        <v>2.2674010886764422</v>
+        <v>1.3222183949152797</v>
       </c>
       <c r="B216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C216">
         <v>3</v>
@@ -4721,13 +4709,13 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
-        <v>1.3222183949152797</v>
+        <v>1.5287666251900545</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D217">
         <v>2</v>
@@ -4741,10 +4729,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
-        <v>1.5287666251900545</v>
+        <v>1.8374832617373933</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C218">
         <v>4</v>
@@ -4761,10 +4749,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
-        <v>1.8374832617373933</v>
+        <v>1.7050383966911731</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C219">
         <v>4</v>
@@ -4781,10 +4769,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
-        <v>1.7050383966911731</v>
+        <v>1.8578804965116014</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C220">
         <v>4</v>
@@ -4801,13 +4789,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
-        <v>1.8578804965116014</v>
+        <v>2.3908201528094977</v>
       </c>
       <c r="B221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C221">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -4821,10 +4809,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
-        <v>2.3908201528094977</v>
+        <v>1.3802066859512223</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -4841,10 +4829,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
-        <v>1.3802066859512223</v>
+        <v>1.6704002897142265</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C223">
         <v>5</v>
@@ -4861,10 +4849,10 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
-        <v>1.6704002897142265</v>
+        <v>2.5817708436628655</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C224">
         <v>5</v>
@@ -4881,13 +4869,13 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
-        <v>2.5817708436628655</v>
+        <v>1.495049504950495</v>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C225">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D225">
         <v>2</v>
@@ -4901,10 +4889,10 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
-        <v>1.495049504950495</v>
+        <v>1.34</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C226">
         <v>6</v>
@@ -4921,10 +4909,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
-        <v>1.34</v>
+        <v>1.5663265306122449</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C227">
         <v>6</v>
@@ -4941,10 +4929,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
-        <v>1.5663265306122449</v>
+        <v>1.9080459770114941</v>
       </c>
       <c r="B228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C228">
         <v>6</v>
@@ -4961,13 +4949,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
-        <v>1.9080459770114941</v>
+        <v>1.9073439956976579</v>
       </c>
       <c r="B229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C229">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -4981,10 +4969,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
-        <v>1.9073439956976579</v>
+        <v>2.0219495367675306</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C230">
         <v>7</v>
@@ -5001,10 +4989,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
-        <v>2.0219495367675306</v>
+        <v>1.7348850411581134</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C231">
         <v>7</v>
@@ -5021,10 +5009,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
-        <v>1.7348850411581134</v>
+        <v>1.6500152100823045</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C232">
         <v>7</v>
@@ -5041,13 +5029,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
-        <v>1.6500152100823045</v>
+        <v>2.1099224859234611</v>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D233">
         <v>2</v>
@@ -5061,10 +5049,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
-        <v>2.1099224859234611</v>
+        <v>1.5904126554717317</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C234">
         <v>8</v>
@@ -5081,10 +5069,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
-        <v>1.5904126554717317</v>
+        <v>2.3053584908890956</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C235">
         <v>8</v>
@@ -5101,10 +5089,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
-        <v>2.3053584908890956</v>
+        <v>1.3997773057993748</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C236">
         <v>8</v>
@@ -5121,19 +5109,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
-        <v>1.3997773057993748</v>
+        <v>1.5841332682703242</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C237">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F237">
         <v>2</v>
@@ -5141,10 +5129,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
-        <v>1.5841332682703242</v>
+        <v>1.6280727531638572</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -5161,10 +5149,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
-        <v>1.6280727531638572</v>
+        <v>1.3075080611244592</v>
       </c>
       <c r="B239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -5181,10 +5169,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
-        <v>1.3075080611244592</v>
+        <v>1.324262559888149</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -5201,13 +5189,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
-        <v>1.324262559888149</v>
+        <v>1.7003640110229241</v>
       </c>
       <c r="B241">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
         <v>3</v>
@@ -5221,10 +5209,10 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
-        <v>1.7003640110229241</v>
+        <v>1.3604410180094781</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -5241,10 +5229,10 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
-        <v>1.3604410180094781</v>
+        <v>1.43418619457953</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C243">
         <v>2</v>
@@ -5261,10 +5249,10 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
-        <v>1.43418619457953</v>
+        <v>1.3314325163174201</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -5281,13 +5269,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
-        <v>1.3314325163174201</v>
+        <v>1.1054293366677004</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D245">
         <v>3</v>
@@ -5301,10 +5289,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
-        <v>1.1054293366677004</v>
+        <v>1.0345702145388169</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246">
         <v>3</v>
@@ -5321,10 +5309,10 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
-        <v>1.0345702145388169</v>
+        <v>1.0394240361098901</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C247">
         <v>3</v>
@@ -5341,10 +5329,10 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
-        <v>1.0394240361098901</v>
+        <v>0.8765400796228795</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C248">
         <v>3</v>
@@ -5361,13 +5349,13 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
-        <v>0.8765400796228795</v>
+        <v>0.74271182237630307</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D249">
         <v>3</v>
@@ -5381,10 +5369,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
-        <v>0.74271182237630307</v>
+        <v>0.81505531405931742</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C250">
         <v>4</v>
@@ -5401,10 +5389,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
-        <v>0.81505531405931742</v>
+        <v>0.81368089004034183</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C251">
         <v>4</v>
@@ -5421,10 +5409,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
-        <v>0.81368089004034183</v>
+        <v>0.74631838732056099</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C252">
         <v>4</v>
@@ -5441,13 +5429,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
-        <v>0.74631838732056099</v>
+        <v>1.2519404293539649</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D253">
         <v>3</v>
@@ -5461,10 +5449,10 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
-        <v>1.2519404293539649</v>
+        <v>1.4337754061128272</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C254">
         <v>5</v>
@@ -5481,10 +5469,10 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
-        <v>1.4337754061128272</v>
+        <v>1.2794132064768859</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C255">
         <v>5</v>
@@ -5501,10 +5489,10 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
-        <v>1.2794132064768859</v>
+        <v>1.1560276034460493</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C256">
         <v>5</v>
@@ -5521,19 +5509,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
-        <v>1.1560276034460493</v>
+        <v>2.1014790317589891</v>
       </c>
       <c r="B257">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D257">
         <v>3</v>
       </c>
       <c r="E257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F257">
         <v>2</v>
@@ -5541,10 +5529,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
-        <v>2.1014790317589891</v>
+        <v>1.2006869193059402</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -5561,10 +5549,10 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
-        <v>1.2006869193059402</v>
+        <v>2.6862842426213005</v>
       </c>
       <c r="B259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -5581,10 +5569,10 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
-        <v>2.6862842426213005</v>
+        <v>1.6832061371742444</v>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -5601,13 +5589,13 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
-        <v>1.6832061371742444</v>
+        <v>1.7656851986694984</v>
       </c>
       <c r="B261">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261">
         <v>3</v>
@@ -5621,10 +5609,10 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
-        <v>1.7656851986694984</v>
+        <v>1.1971754293292509</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C262">
         <v>2</v>
@@ -5641,10 +5629,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
-        <v>1.1971754293292509</v>
+        <v>1.5579263843249198</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C263">
         <v>2</v>
@@ -5661,10 +5649,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
-        <v>1.5579263843249198</v>
+        <v>1.2849729193555475</v>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C264">
         <v>2</v>
@@ -5681,13 +5669,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
-        <v>1.2849729193555475</v>
+        <v>1.2137121195534033</v>
       </c>
       <c r="B265">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D265">
         <v>3</v>
@@ -5701,10 +5689,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
-        <v>1.2137121195534033</v>
+        <v>0.98739788727261135</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C266">
         <v>3</v>
@@ -5721,10 +5709,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
-        <v>0.98739788727261135</v>
+        <v>1.3648120115399132</v>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C267">
         <v>3</v>
@@ -5741,10 +5729,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
-        <v>1.3648120115399132</v>
+        <v>1.3757237159856015</v>
       </c>
       <c r="B268">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -5761,13 +5749,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
-        <v>1.3757237159856015</v>
+        <v>1.4862227158891514</v>
       </c>
       <c r="B269">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D269">
         <v>3</v>
@@ -5781,10 +5769,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
-        <v>1.4862227158891514</v>
+        <v>1.3914124177338925</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C270">
         <v>4</v>
@@ -5801,10 +5789,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
-        <v>1.3914124177338925</v>
+        <v>1.9167204520442469</v>
       </c>
       <c r="B271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C271">
         <v>4</v>
@@ -5821,10 +5809,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
-        <v>1.9167204520442469</v>
+        <v>1.4901284599948863</v>
       </c>
       <c r="B272">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C272">
         <v>4</v>
@@ -5841,13 +5829,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
-        <v>1.4901284599948863</v>
+        <v>1.8533712863470575</v>
       </c>
       <c r="B273">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D273">
         <v>3</v>
@@ -5861,10 +5849,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
-        <v>1.8533712863470575</v>
+        <v>1.6053536800279282</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C274">
         <v>5</v>
@@ -5881,10 +5869,10 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
-        <v>1.6053536800279282</v>
+        <v>1.9199593346317991</v>
       </c>
       <c r="B275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C275">
         <v>5</v>
@@ -5901,10 +5889,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
-        <v>1.9199593346317991</v>
+        <v>1.6696395300937332</v>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C276">
         <v>5</v>
@@ -5916,26 +5904,6 @@
         <v>1</v>
       </c>
       <c r="F276">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A277" s="1">
-        <v>1.6696395300937332</v>
-      </c>
-      <c r="B277">
-        <v>4</v>
-      </c>
-      <c r="C277">
-        <v>5</v>
-      </c>
-      <c r="D277">
-        <v>3</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
         <v>2</v>
       </c>
     </row>
